--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 19C/PRUEBA_TEMPERATURA_6_19C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 19C/PRUEBA_TEMPERATURA_6_19C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datos crudos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,109 +73,121 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-09 04:28:21</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:29:21</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:30:22</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:31:23</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:32:24</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:33:25</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:34:26</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:35:26</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:36:27</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:37:28</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:38:29</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:39:30</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:40:31</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:41:32</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:42:32</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:43:33</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:44:34</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:45:35</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:46:36</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:47:37</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:48:38</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:49:38</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:50:39</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:51:40</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:52:41</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:53:42</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:54:43</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:55:44</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:56:44</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:57:45</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:58:46</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:59:47</t>
-  </si>
-  <si>
-    <t>2023-12-09 05:00:48</t>
-  </si>
-  <si>
-    <t>2023-12-09 05:01:49</t>
-  </si>
-  <si>
-    <t>2023-12-09 05:02:49</t>
+    <t>2023-12-11 23:54:20</t>
+  </si>
+  <si>
+    <t>2023-12-11 23:55:19</t>
+  </si>
+  <si>
+    <t>2023-12-11 23:56:19</t>
+  </si>
+  <si>
+    <t>2023-12-11 23:57:19</t>
+  </si>
+  <si>
+    <t>2023-12-11 23:58:19</t>
+  </si>
+  <si>
+    <t>2023-12-11 23:59:19</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:00:19</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:01:19</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:02:19</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:03:19</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:04:19</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:05:19</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:06:19</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:07:18</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:08:18</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:09:18</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:10:18</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:11:18</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:12:18</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:13:18</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:14:18</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:15:18</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:16:18</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:17:18</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:18:18</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:19:18</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:20:17</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:21:17</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:22:17</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:23:17</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:24:17</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:25:17</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:26:17</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:27:17</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:28:17</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:29:17</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:30:17</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:31:17</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:32:17</t>
   </si>
 </sst>
 </file>
@@ -842,27 +854,27 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$36</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
+                  <c:v>26.4597902097901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.279720279720198</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>24.493006993006901</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.0996503496503</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>23.968531468531399</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>23.312937062936999</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.181818181818102</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.919580419580399</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.788461538461501</c:v>
+                  <c:v>23.0506993006993</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>22.526223776223699</c:v>
@@ -871,85 +883,97 @@
                   <c:v>22.526223776223699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.263986013985999</c:v>
+                  <c:v>22.132867132867101</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>22.132867132867101</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>22.0017482517482</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>21.870629370629299</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.739510489510401</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>21.739510489510401</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>21.6083916083915</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>21.477272727272599</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>20.821678321678199</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>21.477272727272599</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>21.6083916083915</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>21.477272727272599</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
+                  <c:v>21.346153846153801</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.346153846153801</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.346153846153801</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.477272727272599</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.215034965034899</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>21.6083916083915</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
+                  <c:v>21.083916083916002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.477272727272599</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.346153846153801</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.346153846153801</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>21.215034965034899</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>21.477272727272599</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.215034965034899</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21.6083916083915</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21.477272727272599</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21.215034965034899</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21.477272727272599</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>21.6083916083915</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>21.477272727272599</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>21.215034965034899</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>21.477272727272599</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>21.346153846153801</c:v>
+                  <c:v>21.083916083916002</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>21.346153846153801</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>21.215034965034899</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.346153846153801</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21.346153846153801</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.346153846153801</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>21.477272727272599</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
+                  <c:v>21.083916083916002</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>21.477272727272599</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="38">
                   <c:v>21.083916083916002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21.215034965034899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,6 +1061,7 @@
         <c:axId val="465779280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="19"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1205,19 +1230,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>21.477272727272599</c:v>
+                  <c:v>21.215034965034899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.6083916083915</c:v>
+                  <c:v>21.083916083916002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.477272727272599</c:v>
+                  <c:v>21.346153846153801</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>21.215034965034899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.477272727272599</c:v>
+                  <c:v>21.346153846153801</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>21.346153846153801</c:v>
@@ -1229,13 +1254,13 @@
                   <c:v>21.477272727272599</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>21.083916083916002</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>21.477272727272599</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>21.083916083916002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.215034965034899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,10 +1357,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21.381913541004359</c:v>
+                  <c:v>21.274634456452564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.381913541004359</c:v>
+                  <c:v>21.274634456452564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3057,10 +3082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3106,17 +3131,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>24.493006993006901</v>
+        <v>26.4597902097901</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>1.0555555556493346E-2</v>
+        <v>4.1550925961928442E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3133,14 +3158,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.0996503496503</v>
+        <v>25.279720279720198</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
         <f>COUNT(E:E)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3157,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.312937062936999</v>
+        <v>24.493006993006901</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3174,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23.181818181818102</v>
+        <v>23.968531468531399</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3191,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.919580419580399</v>
+        <v>23.312937062936999</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3208,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.788461538461501</v>
+        <v>23.0506993006993</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3259,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>22.263986013985999</v>
+        <v>22.132867132867101</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3293,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.870629370629299</v>
+        <v>22.0017482517482</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3310,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.739510489510401</v>
+        <v>21.870629370629299</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3344,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>21.477272727272599</v>
+        <v>21.6083916083915</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3361,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.821678321678199</v>
+        <v>21.477272727272599</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3378,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>21.6083916083915</v>
+        <v>21.477272727272599</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3395,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>21.477272727272599</v>
+        <v>21.6083916083915</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3412,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>21.6083916083915</v>
+        <v>21.477272727272599</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3429,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>21.215034965034899</v>
+        <v>21.346153846153801</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3446,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.477272727272599</v>
+        <v>21.346153846153801</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3463,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.215034965034899</v>
+        <v>21.346153846153801</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3480,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.6083916083915</v>
+        <v>21.477272727272599</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3497,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>21.477272727272599</v>
+        <v>21.215034965034899</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3514,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>21.215034965034899</v>
+        <v>21.6083916083915</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3531,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>21.477272727272599</v>
+        <v>21.083916083916002</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3548,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>21.6083916083915</v>
+        <v>21.477272727272599</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3565,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>21.477272727272599</v>
+        <v>21.346153846153801</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3582,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>21.215034965034899</v>
+        <v>21.346153846153801</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3599,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>21.477272727272599</v>
+        <v>21.215034965034899</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3616,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>21.346153846153801</v>
+        <v>21.083916083916002</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3650,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>21.477272727272599</v>
+        <v>21.215034965034899</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3667,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>21.477272727272599</v>
+        <v>21.346153846153801</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3684,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>21.083916083916002</v>
+        <v>21.346153846153801</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3701,7 +3726,75 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>21.215034965034899</v>
+        <v>21.346153846153801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>19</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>21.477272727272599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>19</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>21.083916083916002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>21.477272727272599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>19</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>21.083916083916002</v>
       </c>
     </row>
   </sheetData>
@@ -3714,8 +3807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3740,45 +3833,45 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:52:41</v>
+        <v>2023-12-12 00:22:17</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>21.477272727272599</v>
+        <v>21.215034965034899</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>21.381913541004359</v>
+        <v>21.274634456452564</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:53:42</v>
+        <v>2023-12-12 00:23:17</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>21.6083916083915</v>
+        <v>21.083916083916002</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>21.381913541004359</v>
+        <v>21.274634456452564</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:54:43</v>
+        <v>2023-12-12 00:24:17</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>21.477272727272599</v>
+        <v>21.346153846153801</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -3787,7 +3880,7 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:55:44</v>
+        <v>2023-12-12 00:25:17</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
@@ -3795,23 +3888,23 @@
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.15614611786850341</v>
+        <v>0.14792204759206465</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:56:44</v>
+        <v>2023-12-12 00:26:17</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>21.477272727272599</v>
+        <v>21.346153846153801</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:57:45</v>
+        <v>2023-12-12 00:27:17</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
@@ -3824,7 +3917,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:58:46</v>
+        <v>2023-12-12 00:28:17</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
@@ -3832,13 +3925,13 @@
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>21.6083916083915</v>
+        <v>21.477272727272599</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:59:47</v>
+        <v>2023-12-12 00:29:17</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
@@ -3849,11 +3942,11 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 05:00:48</v>
+        <v>2023-12-12 00:30:17</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>21.477272727272599</v>
+        <v>21.083916083916002</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3862,11 +3955,11 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 05:01:49</v>
+        <v>2023-12-12 00:31:17</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>21.083916083916002</v>
+        <v>21.477272727272599</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
@@ -3876,11 +3969,11 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 05:02:49</v>
+        <v>2023-12-12 00:32:17</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>21.215034965034899</v>
+        <v>21.083916083916002</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -3914,8 +4007,8 @@
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17">
-        <f>E14+0.6</f>
-        <v>19.600000000000001</v>
+        <f>E14+0.5</f>
+        <v>19.5</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.3">
@@ -3925,8 +4018,8 @@
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20">
-        <f>E14-0.6</f>
-        <v>18.399999999999999</v>
+        <f>E14-0.5</f>
+        <v>18.5</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.3">
